--- a/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por implantes en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>30272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20972</v>
+        <v>21491</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40378</v>
+        <v>41146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04589971735940319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03179855047024216</v>
+        <v>0.03258599926105577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06122236869488858</v>
+        <v>0.06238742582772024</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -762,19 +762,19 @@
         <v>28062</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20982</v>
+        <v>21179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35818</v>
+        <v>36095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03973949558603174</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02971314641452566</v>
+        <v>0.02999245487746756</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05072283558005018</v>
+        <v>0.05111463850243445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -783,19 +783,19 @@
         <v>58334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47744</v>
+        <v>47518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71514</v>
+        <v>72220</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04271446676536074</v>
+        <v>0.04271446676536073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0349597043026262</v>
+        <v>0.03479416681471441</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05236476648698953</v>
+        <v>0.05288196719112073</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>629259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>619153</v>
+        <v>618385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>638559</v>
+        <v>638040</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9541002826405968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9387776313051115</v>
+        <v>0.9376125741722798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9682014495297575</v>
+        <v>0.9674140007389447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1140</v>
@@ -833,19 +833,19 @@
         <v>678087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>670331</v>
+        <v>670054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>685167</v>
+        <v>684970</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.960260504413968</v>
+        <v>0.9602605044139682</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9492771644199498</v>
+        <v>0.9488853614975667</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9702868535854743</v>
+        <v>0.9700075451225331</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1799</v>
@@ -854,19 +854,19 @@
         <v>1307346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1294166</v>
+        <v>1293460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1317936</v>
+        <v>1318162</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9572855332346394</v>
+        <v>0.9572855332346393</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9476352335130105</v>
+        <v>0.9471180328088793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9650402956973738</v>
+        <v>0.9652058331852855</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>37230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26172</v>
+        <v>26585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50679</v>
+        <v>51524</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03663753751353708</v>
+        <v>0.03663753751353709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0257550871763739</v>
+        <v>0.02616145003620559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04987189571165725</v>
+        <v>0.05070331761123723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -979,19 +979,19 @@
         <v>39536</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30476</v>
+        <v>30236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50910</v>
+        <v>51273</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03773289376810063</v>
+        <v>0.03773289376810062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02908661096920724</v>
+        <v>0.02885752174777558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04858795083443398</v>
+        <v>0.04893447476190101</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -1000,19 +1000,19 @@
         <v>76766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62945</v>
+        <v>62033</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95073</v>
+        <v>95293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03719360185213319</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03049720275615727</v>
+        <v>0.03005529788696753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04606318264636486</v>
+        <v>0.04616975631779565</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>978950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>965501</v>
+        <v>964656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>990008</v>
+        <v>989595</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9633624624864627</v>
+        <v>0.9633624624864631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9501281042883426</v>
+        <v>0.9492966823887629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9742449128236257</v>
+        <v>0.9738385499637944</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1418</v>
@@ -1050,19 +1050,19 @@
         <v>1008248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996874</v>
+        <v>996511</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1017308</v>
+        <v>1017548</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9622671062318995</v>
+        <v>0.9622671062318994</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9514120491655661</v>
+        <v>0.9510655252380994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9709133890307928</v>
+        <v>0.9711424782522246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2316</v>
@@ -1071,19 +1071,19 @@
         <v>1987198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1968891</v>
+        <v>1968671</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2001019</v>
+        <v>2001931</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9628063981478668</v>
+        <v>0.9628063981478669</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9539368173536337</v>
+        <v>0.9538302436822045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9695027972438425</v>
+        <v>0.9699447021130329</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>41251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29320</v>
+        <v>30044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55258</v>
+        <v>55965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05329586141056984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03788127523121618</v>
+        <v>0.03881559845190558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07139183573461103</v>
+        <v>0.07230520300368308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1196,19 +1196,19 @@
         <v>39564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30708</v>
+        <v>30146</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51956</v>
+        <v>51894</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04974480551972467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03860965869608323</v>
+        <v>0.03790339952836503</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0653252446840983</v>
+        <v>0.06524719767484607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1217,19 +1217,19 @@
         <v>80816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64400</v>
+        <v>65026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98655</v>
+        <v>97717</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0514961924599409</v>
+        <v>0.05149619245994089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04103616518963717</v>
+        <v>0.04143520093911178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06286323173346083</v>
+        <v>0.06226565142356401</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>732757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>718750</v>
+        <v>718043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>744688</v>
+        <v>743964</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.94670413858943</v>
+        <v>0.9467041385894303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9286081642653888</v>
+        <v>0.9276947969963167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9621187247687837</v>
+        <v>0.9611844015480941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>969</v>
@@ -1267,19 +1267,19 @@
         <v>755781</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>743389</v>
+        <v>743451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764637</v>
+        <v>765199</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9502551944802753</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346747553159018</v>
+        <v>0.9347528023251539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9613903413039168</v>
+        <v>0.962096600471635</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1585</v>
@@ -1288,19 +1288,19 @@
         <v>1488537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1470698</v>
+        <v>1471636</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1504953</v>
+        <v>1504327</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9485038075400591</v>
+        <v>0.948503807540059</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9371367682665391</v>
+        <v>0.9377343485764357</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9589638348103631</v>
+        <v>0.9585647990608881</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>46508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36170</v>
+        <v>34503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61220</v>
+        <v>59013</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04906129509218453</v>
+        <v>0.04906129509218454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03815547833543511</v>
+        <v>0.03639676227429309</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06458135807304975</v>
+        <v>0.06225244089929836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1413,19 +1413,19 @@
         <v>44981</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34691</v>
+        <v>35553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56346</v>
+        <v>56593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04179690784612908</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0322356718048886</v>
+        <v>0.03303631400319677</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05235834163667313</v>
+        <v>0.05258716581398246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -1434,19 +1434,19 @@
         <v>91489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76041</v>
+        <v>75807</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108111</v>
+        <v>108177</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04519903388812292</v>
+        <v>0.04519903388812291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03756704898588711</v>
+        <v>0.03745187372145686</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05341124441550926</v>
+        <v>0.05344384106767729</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>901451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>886739</v>
+        <v>888946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>911789</v>
+        <v>913456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9509387049078152</v>
+        <v>0.9509387049078153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9354186419269503</v>
+        <v>0.937747559100702</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9618445216645648</v>
+        <v>0.963603237725707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1437</v>
@@ -1484,19 +1484,19 @@
         <v>1031189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1019824</v>
+        <v>1019577</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1041479</v>
+        <v>1040617</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9582030921538708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9476416583633267</v>
+        <v>0.9474128341860177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9677643281951114</v>
+        <v>0.9669636859968033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2345</v>
@@ -1505,19 +1505,19 @@
         <v>1932640</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1916018</v>
+        <v>1915952</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1948088</v>
+        <v>1948322</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9548009661118771</v>
+        <v>0.9548009661118769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9465887555844907</v>
+        <v>0.9465561589323227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9624329510141129</v>
+        <v>0.9625481262785431</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>155262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>130902</v>
+        <v>131897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>179015</v>
+        <v>180762</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04569654256769697</v>
+        <v>0.04569654256769698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03852676153307166</v>
+        <v>0.03881968156981967</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05268756337736302</v>
+        <v>0.05320177167037374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>253</v>
@@ -1630,19 +1630,19 @@
         <v>152143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132732</v>
+        <v>135275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172768</v>
+        <v>171994</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0419652390601206</v>
+        <v>0.04196523906012059</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03661132277906447</v>
+        <v>0.03731273843166451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04765435471996157</v>
+        <v>0.04744086703201664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>425</v>
@@ -1651,19 +1651,19 @@
         <v>307405</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>276289</v>
+        <v>278142</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>336091</v>
+        <v>339978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04377038503102697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03933987689343808</v>
+        <v>0.03960369249466342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04785496954853194</v>
+        <v>0.04840834539789479</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3242416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3218663</v>
+        <v>3216916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3266776</v>
+        <v>3265781</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9543034574323029</v>
+        <v>0.954303457432303</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.947312436622637</v>
+        <v>0.9467982283296262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9614732384669282</v>
+        <v>0.9611803184301801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4964</v>
@@ -1701,19 +1701,19 @@
         <v>3473305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3452680</v>
+        <v>3453454</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3492716</v>
+        <v>3490173</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9580347609398794</v>
+        <v>0.9580347609398793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9523456452800386</v>
+        <v>0.9525591329679836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9633886772209357</v>
+        <v>0.9626872615683356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8045</v>
@@ -1722,19 +1722,19 @@
         <v>6715720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6687034</v>
+        <v>6683147</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6746836</v>
+        <v>6744983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9562296149689731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9521450304514681</v>
+        <v>0.9515916546021054</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.960660123106562</v>
+        <v>0.9603963075053366</v>
       </c>
     </row>
     <row r="18">
